--- a/朝阳/安华里四区/新建 Microsoft Office Excel 工作表.xlsx
+++ b/朝阳/安华里四区/新建 Microsoft Office Excel 工作表.xlsx
@@ -1349,7 +1349,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.7707786526684052E-3"/>
+          <c:x val="2.7707786526684056E-3"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -2276,24 +2276,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="80768000"/>
-        <c:axId val="86409984"/>
+        <c:axId val="88683264"/>
+        <c:axId val="88684800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80768000"/>
+        <c:axId val="88683264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86409984"/>
+        <c:crossAx val="88684800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86409984"/>
+        <c:axId val="88684800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2301,7 +2301,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80768000"/>
+        <c:crossAx val="88683264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2314,7 +2314,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3252,24 +3252,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82001280"/>
-        <c:axId val="86475904"/>
+        <c:axId val="88705280"/>
+        <c:axId val="88723456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82001280"/>
+        <c:axId val="88705280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86475904"/>
+        <c:crossAx val="88723456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86475904"/>
+        <c:axId val="88723456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3277,7 +3277,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82001280"/>
+        <c:crossAx val="88705280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3290,7 +3290,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3649,10 +3649,13 @@
   <dimension ref="A2:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
